--- a/forecast_summary_B0BF73P6HY.xlsx
+++ b/forecast_summary_B0BF73P6HY.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>-0.1899412190635058</v>
       </c>
       <c r="D2" t="n">
-        <v>4.487431158846566</v>
+        <v>3.999644176212133</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -511,6 +516,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-0.3345208616659059</v>
       </c>
       <c r="D3" t="n">
-        <v>3.918803121383793</v>
+        <v>3.785777156905564</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -547,6 +555,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.5697886027367074</v>
       </c>
       <c r="D4" t="n">
-        <v>3.887241875627013</v>
+        <v>3.787875153222689</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -583,6 +594,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-1.101378925280361</v>
       </c>
       <c r="D5" t="n">
-        <v>3.442525019653647</v>
+        <v>3.169068822498533</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -619,6 +633,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-1.679455910694654</v>
       </c>
       <c r="D6" t="n">
-        <v>2.741004703930012</v>
+        <v>2.715652653736683</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -655,6 +672,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-1.780785191730331</v>
       </c>
       <c r="D7" t="n">
-        <v>2.814816292562984</v>
+        <v>2.804149875878401</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -691,6 +711,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>-1.232216831427856</v>
       </c>
       <c r="D8" t="n">
-        <v>2.877261048604064</v>
+        <v>3.410834322683288</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -727,6 +750,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.4697666075518417</v>
       </c>
       <c r="D9" t="n">
-        <v>4.187652149799242</v>
+        <v>3.86974507290559</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -763,6 +789,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-0.07187935276826483</v>
       </c>
       <c r="D10" t="n">
-        <v>3.967577032211414</v>
+        <v>4.476332592265536</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
@@ -799,6 +828,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.1484470830963341</v>
       </c>
       <c r="D11" t="n">
-        <v>4.402474149534712</v>
+        <v>4.494996866789275</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
@@ -835,6 +867,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-0.3398253427140702</v>
       </c>
       <c r="D12" t="n">
-        <v>4.344246566497024</v>
+        <v>4.372726123633469</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -871,6 +906,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>-0.3623045369161702</v>
       </c>
       <c r="D13" t="n">
-        <v>4.262481592415712</v>
+        <v>4.320910202005765</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -907,6 +945,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>-0.3450426910152901</v>
       </c>
       <c r="D14" t="n">
-        <v>4.114719160410168</v>
+        <v>4.329068578255664</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -943,6 +984,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.5515766820284732</v>
       </c>
       <c r="D15" t="n">
-        <v>4.366866187663737</v>
+        <v>4.113272040959529</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.9418601370722655</v>
       </c>
       <c r="D16" t="n">
-        <v>3.785014079496535</v>
+        <v>3.630658728439065</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-1.207863982025719</v>
       </c>
       <c r="D17" t="n">
-        <v>3.229943722486114</v>
+        <v>3.196756824536694</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-1.204389017839814</v>
       </c>
       <c r="D18" t="n">
-        <v>3.140985394528349</v>
+        <v>3.221172671484693</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-1.139038866898145</v>
       </c>
       <c r="D19" t="n">
-        <v>3.397808352582446</v>
+        <v>3.260456908283385</v>
       </c>
       <c r="E19" t="n">
         <v>6</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-1.265709605823647</v>
       </c>
       <c r="D20" t="n">
-        <v>3.161194519088123</v>
+        <v>3.464680678116289</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-1.559060175583209</v>
       </c>
       <c r="D21" t="n">
-        <v>2.702355782365863</v>
+        <v>2.590946400725826</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>X670E AORUS XTREME</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1433,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
